--- a/data/trans_bre/P1423-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -590,11 +604,13 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,04</t>
+          <t>4,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,07</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>206,5%</t>
+          <t>176,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>279,95%</t>
+          <t>255,13%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>332,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36,79%</t>
         </is>
       </c>
     </row>
@@ -642,39 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 12,3</t>
+          <t>1,9; 6,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 12,51</t>
+          <t>6,12; 11,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,99; 19,29</t>
+          <t>6,18; 11,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 5,61</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,25; 1070,51</t>
+          <t>54,41; 390,49</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>27,3; 1386,05</t>
+          <t>129,33; 464,09</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>165,43; 622,89</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,45; 91,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,6</t>
+          <t>6,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>126,39%</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>261,62%</t>
+          <t>166,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>350,32%</t>
+          <t>140,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>311,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>203,17%</t>
         </is>
       </c>
     </row>
@@ -722,39 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,12</t>
+          <t>2,87; 7,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,75; 13,13</t>
+          <t>4,13; 9,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 11,51</t>
+          <t>4,82; 9,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,59; 298,84</t>
+          <t>5,24; 10,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>130,61; 482,55</t>
+          <t>71,0; 327,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>144,86; 680,29</t>
+          <t>68,57; 245,17</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>169,35; 563,69</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>98,37; 451,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,88</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>5,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>166,94%</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>140,71%</t>
+          <t>125,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>311,02%</t>
+          <t>204,86%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>151,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>80,19%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,1</t>
+          <t>1,98; 6,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,08</t>
+          <t>3,93; 9,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,11</t>
+          <t>3,03; 8,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>71,0; 327,37</t>
+          <t>-0,44; 9,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>68,57; 245,17</t>
+          <t>40,1; 264,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>169,35; 563,69</t>
+          <t>82,95; 410,24</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>55,36; 303,19</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 179,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>125,31%</t>
+          <t>5,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>204,86%</t>
+          <t>126,74%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>151,95%</t>
+          <t>146,17%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>147,46%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>75,24%</t>
         </is>
       </c>
     </row>
@@ -882,39 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,8</t>
+          <t>2,23; 6,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,57</t>
+          <t>4,44; 9,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,21</t>
+          <t>4,23; 8,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,1; 264,84</t>
+          <t>2,33; 7,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,95; 410,24</t>
+          <t>46,67; 237,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,36; 303,19</t>
+          <t>77,47; 255,93</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>76,29; 272,21</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32,77; 143,02</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,61</t>
+          <t>6,93</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>126,74%</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>146,17%</t>
+          <t>145,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>147,46%</t>
+          <t>174,01%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>212,83%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>95,08%</t>
         </is>
       </c>
     </row>
@@ -962,133 +1068,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,38</t>
+          <t>3,38; 5,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,11</t>
+          <t>5,94; 8,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,96</t>
+          <t>5,69; 8,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>46,67; 237,07</t>
+          <t>3,39; 7,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>77,47; 255,93</t>
+          <t>94,2; 210,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>76,29; 272,21</t>
+          <t>125,35; 236,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>154,23; 286,66</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>56,61; 154,98</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>7,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,93</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>145,93%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>174,01%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>212,83%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,38; 5,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>5,94; 8,46</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,69; 8,08</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>94,2; 210,06</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>125,35; 236,43</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>154,23; 286,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P1423-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,3</t>
+          <t>2,01; 6,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,12; 11,95</t>
+          <t>6,56; 12,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,18; 11,62</t>
+          <t>6,2; 11,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 5,61</t>
+          <t>-0,26; 5,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>54,41; 390,49</t>
+          <t>60,43; 397,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>129,33; 464,09</t>
+          <t>135,04; 449,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>165,43; 622,89</t>
+          <t>162,85; 634,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 91,0</t>
+          <t>-2,46; 93,78</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 7,1</t>
+          <t>2,85; 7,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,08</t>
+          <t>4,24; 9,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,11</t>
+          <t>4,86; 8,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 10,27</t>
+          <t>5,46; 10,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>71,0; 327,37</t>
+          <t>67,86; 314,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>68,57; 245,17</t>
+          <t>70,67; 238,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>169,35; 563,69</t>
+          <t>157,65; 553,69</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>98,37; 451,81</t>
+          <t>104,76; 495,35</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 6,8</t>
+          <t>1,72; 6,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 9,57</t>
+          <t>4,18; 9,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,03; 8,21</t>
+          <t>2,87; 8,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 9,12</t>
+          <t>-1,22; 8,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,1; 264,84</t>
+          <t>34,84; 250,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>82,95; 410,24</t>
+          <t>83,22; 423,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>55,36; 303,19</t>
+          <t>54,77; 303,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 179,26</t>
+          <t>-10,79; 182,61</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 6,38</t>
+          <t>2,47; 6,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 9,11</t>
+          <t>4,39; 9,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,23; 8,96</t>
+          <t>4,14; 9,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,7</t>
+          <t>2,3; 7,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,67; 237,07</t>
+          <t>52,47; 230,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>77,47; 255,93</t>
+          <t>73,35; 257,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,29; 272,21</t>
+          <t>76,47; 261,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>32,77; 143,02</t>
+          <t>28,35; 131,86</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,55</t>
+          <t>3,44; 5,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,94; 8,46</t>
+          <t>5,83; 8,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,69; 8,08</t>
+          <t>5,78; 8,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,21</t>
+          <t>3,19; 6,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>94,2; 210,06</t>
+          <t>96,3; 209,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>125,35; 236,43</t>
+          <t>121,93; 235,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>154,23; 286,66</t>
+          <t>156,24; 293,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>56,61; 154,98</t>
+          <t>54,36; 143,15</t>
         </is>
       </c>
     </row>
